--- a/resources/ICC_Pinout Desc.xlsx
+++ b/resources/ICC_Pinout Desc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Documents\repositories\BA-Falcon-Custom-Climate-Control\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5361316-DB5E-47D4-BDB4-85D13276275D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274ED8D2-4A29-47CB-8237-509899D9B8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2DDAEAB7-E334-458D-99ED-CE3D924A07BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -180,17 +180,77 @@
     <t>Power to the ICC</t>
   </si>
   <si>
-    <t>4 pin connector, 12V constant, 12V acc, phone mute, ground</t>
-  </si>
-  <si>
-    <t>2 pin connector, aux +- audio signal</t>
+    <t>Goes to 4 pin connector, 12V constant, 12V acc, phone mute, ground</t>
+  </si>
+  <si>
+    <t>Steering wheel buttons (cruise control), airbag</t>
+  </si>
+  <si>
+    <t>Goes to 2 pin connector +- audio signal</t>
+  </si>
+  <si>
+    <t>6 pin connector, FL FR RL RR GND and loop bridge</t>
+  </si>
+  <si>
+    <t>+- signal input to amp</t>
+  </si>
+  <si>
+    <t>Speaker out</t>
+  </si>
+  <si>
+    <t>Possibly rear tail lights???</t>
+  </si>
+  <si>
+    <t>Possibly power to illuminate lights on the cluster???</t>
+  </si>
+  <si>
+    <t>Provides power to the vehicles ignition system???</t>
+  </si>
+  <si>
+    <t>Possibly sends diagnostic codes???</t>
+  </si>
+  <si>
+    <t>Possibly to parking sensor???</t>
+  </si>
+  <si>
+    <t>Possibly power to cluster???</t>
+  </si>
+  <si>
+    <t>Certain</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>No Idea</t>
+  </si>
+  <si>
+    <t>Optional*</t>
+  </si>
+  <si>
+    <t>NA / input</t>
+  </si>
+  <si>
+    <t>Send audio signal through direct wiring</t>
+  </si>
+  <si>
+    <t>Replicate the Connection</t>
+  </si>
+  <si>
+    <t>Decode input / send appropriate output</t>
+  </si>
+  <si>
+    <t>Provides power for accessories???</t>
+  </si>
+  <si>
+    <t>Input???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +258,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,20 +312,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -252,8 +389,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242578</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349258</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>10999</xdr:rowOff>
     </xdr:to>
@@ -289,6 +426,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEB17B7A-098A-487A-8694-0AFF10A33F1F}" name="ICC_Table" displayName="ICC_Table" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{3453696A-EA31-408B-810D-A3FA2C9454A7}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B44F1589-B52B-4D49-9941-6832F9DAEC0B}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7162556C-C6F7-47AA-B4E3-3A939055B099}" name="Position" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EB891A36-6B82-43B9-A56B-AE14F4CB471C}" name="Input/Output" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{48B2C5B2-801A-4FA8-91AF-BB14DD21E1CD}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{17BF0057-EC39-4F97-9AB8-0653D4B91623}" name="Required/Optional" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9AD17D21-8B24-458E-B6F0-0FA8F0C4793D}" name="Replicate the Connection" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,22 +740,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B5BC0-427F-4482-B882-38C15A5BEFE7}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +773,15 @@
       <c r="E1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,62 +791,91 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="H2" s="8"/>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>729</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>213</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -696,13 +886,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,10 +905,15 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -725,184 +923,276 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1437</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>823</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/resources/ICC_Pinout Desc.xlsx
+++ b/resources/ICC_Pinout Desc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Documents\repositories\BA-Falcon-Custom-Climate-Control\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274ED8D2-4A29-47CB-8237-509899D9B8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0965564-27E8-49A4-88F4-6092988AD982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2DDAEAB7-E334-458D-99ED-CE3D924A07BB}"/>
+    <workbookView xWindow="5196" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{2DDAEAB7-E334-458D-99ED-CE3D924A07BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -192,9 +192,6 @@
     <t>6 pin connector, FL FR RL RR GND and loop bridge</t>
   </si>
   <si>
-    <t>+- signal input to amp</t>
-  </si>
-  <si>
     <t>Speaker out</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Possibly sends diagnostic codes???</t>
   </si>
   <si>
-    <t>Possibly to parking sensor???</t>
-  </si>
-  <si>
     <t>Possibly power to cluster???</t>
   </si>
   <si>
@@ -244,6 +238,15 @@
   </si>
   <si>
     <t>Input???</t>
+  </si>
+  <si>
+    <t>Possibly sat nav???</t>
+  </si>
+  <si>
+    <t>Parking sensor</t>
+  </si>
+  <si>
+    <t>signal input to amp +-</t>
   </si>
 </sst>
 </file>
@@ -742,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B5BC0-427F-4482-B882-38C15A5BEFE7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,11 +777,11 @@
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -800,7 +803,7 @@
       <c r="F2" s="2"/>
       <c r="H2" s="8"/>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -814,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
@@ -822,7 +825,7 @@
       <c r="F3" s="6"/>
       <c r="H3" s="9"/>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -836,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -851,7 +854,7 @@
         <v>729</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>49</v>
@@ -869,10 +872,14 @@
         <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -892,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -906,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -924,10 +931,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -942,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -962,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -982,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1002,33 +1009,33 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>1437</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1042,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
@@ -1066,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1086,7 +1093,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1106,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,7 +1191,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ICC_Pinout Desc.xlsx
+++ b/resources/ICC_Pinout Desc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Documents\repositories\BA-Falcon-Custom-Climate-Control\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0965564-27E8-49A4-88F4-6092988AD982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7541585-5DF7-43C4-BD74-946840EE14F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5196" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{2DDAEAB7-E334-458D-99ED-CE3D924A07BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Goes to 4 pin connector, 12V constant, 12V acc, phone mute, ground</t>
   </si>
   <si>
-    <t>Steering wheel buttons (cruise control), airbag</t>
-  </si>
-  <si>
     <t>Goes to 2 pin connector +- audio signal</t>
   </si>
   <si>
@@ -195,21 +192,9 @@
     <t>Speaker out</t>
   </si>
   <si>
-    <t>Possibly rear tail lights???</t>
-  </si>
-  <si>
-    <t>Possibly power to illuminate lights on the cluster???</t>
-  </si>
-  <si>
-    <t>Provides power to the vehicles ignition system???</t>
-  </si>
-  <si>
     <t>Possibly sends diagnostic codes???</t>
   </si>
   <si>
-    <t>Possibly power to cluster???</t>
-  </si>
-  <si>
     <t>Certain</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>No Idea</t>
   </si>
   <si>
-    <t>Optional*</t>
-  </si>
-  <si>
     <t>NA / input</t>
   </si>
   <si>
@@ -234,26 +216,44 @@
     <t>Decode input / send appropriate output</t>
   </si>
   <si>
-    <t>Provides power for accessories???</t>
-  </si>
-  <si>
-    <t>Input???</t>
-  </si>
-  <si>
-    <t>Possibly sat nav???</t>
-  </si>
-  <si>
     <t>Parking sensor</t>
   </si>
   <si>
     <t>signal input to amp +-</t>
+  </si>
+  <si>
+    <t>Ground for illumination (ie. when taillights are on)</t>
+  </si>
+  <si>
+    <t>Illumination for cluster</t>
+  </si>
+  <si>
+    <t>UNSURE</t>
+  </si>
+  <si>
+    <t>Global CAN BUS wake up</t>
+  </si>
+  <si>
+    <t>Steering wheel controls (SWC)</t>
+  </si>
+  <si>
+    <t>To swap between current sound and navigation, when audio fitted</t>
+  </si>
+  <si>
+    <t>12v when key is in ignition position</t>
+  </si>
+  <si>
+    <t>12v when key is in acc position</t>
+  </si>
+  <si>
+    <t>Ground</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +282,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,13 +317,40 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -321,24 +360,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -348,28 +378,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,12 +444,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEB17B7A-098A-487A-8694-0AFF10A33F1F}" name="ICC_Table" displayName="ICC_Table" ref="A1:F22" totalsRowShown="0">
   <autoFilter ref="A1:F22" xr:uid="{3453696A-EA31-408B-810D-A3FA2C9454A7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B44F1589-B52B-4D49-9941-6832F9DAEC0B}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7162556C-C6F7-47AA-B4E3-3A939055B099}" name="Position" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{EB891A36-6B82-43B9-A56B-AE14F4CB471C}" name="Input/Output" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{48B2C5B2-801A-4FA8-91AF-BB14DD21E1CD}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{17BF0057-EC39-4F97-9AB8-0653D4B91623}" name="Required/Optional" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9AD17D21-8B24-458E-B6F0-0FA8F0C4793D}" name="Replicate the Connection" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B44F1589-B52B-4D49-9941-6832F9DAEC0B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{7162556C-C6F7-47AA-B4E3-3A939055B099}" name="Position"/>
+    <tableColumn id="3" xr3:uid="{EB891A36-6B82-43B9-A56B-AE14F4CB471C}" name="Input/Output"/>
+    <tableColumn id="4" xr3:uid="{48B2C5B2-801A-4FA8-91AF-BB14DD21E1CD}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{17BF0057-EC39-4F97-9AB8-0653D4B91623}" name="Required/Optional"/>
+    <tableColumn id="6" xr3:uid="{9AD17D21-8B24-458E-B6F0-0FA8F0C4793D}" name="Replicate the Connection"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B5BC0-427F-4482-B882-38C15A5BEFE7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +769,7 @@
     <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,58 +786,62 @@
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="H1" s="1"/>
       <c r="I1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -836,362 +849,374 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>729</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>213</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>729</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>213</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1437</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1437</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>823</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
+      <c r="E22" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
